--- a/hardware/pin-map.xlsx
+++ b/hardware/pin-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/GitHub/night-light/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30680C7-E393-434C-86A7-74C887FC096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1AE42B-E0A9-8A47-A3D4-79C1DD7B1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38560" yWindow="660" windowWidth="16020" windowHeight="20180" xr2:uid="{07D6C8C6-28C6-F64F-8774-F4BF0DE1D082}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Pin Name</t>
   </si>
@@ -92,24 +92,15 @@
     <t>PWR</t>
   </si>
   <si>
-    <t>UPDI/RESET</t>
-  </si>
-  <si>
     <t>LED Data</t>
   </si>
   <si>
     <t>Touch Send</t>
   </si>
   <si>
-    <t>Touch Return</t>
-  </si>
-  <si>
     <t>TILT SW</t>
   </si>
   <si>
-    <t>PTC</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
@@ -117,13 +108,49 @@
   </si>
   <si>
     <t>Night Light Pin Map</t>
+  </si>
+  <si>
+    <t>Vmeasure ADC1</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>Rst BTN (Software)</t>
+  </si>
+  <si>
+    <t>UPDI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Touch Return </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PTC</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +178,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,15 +248,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>476738</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>175383</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -246,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="4559300"/>
-          <a:ext cx="7772400" cy="5674483"/>
+          <a:off x="476738" y="5075115"/>
+          <a:ext cx="7799754" cy="5729191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,15 +292,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>358531</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>128694</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>99386</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -290,8 +323,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368300" y="10287000"/>
-          <a:ext cx="8256694" cy="7010400"/>
+          <a:off x="358531" y="10585939"/>
+          <a:ext cx="8288932" cy="7076831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302847</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718039</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F63F2D-BCBB-3FDE-74F8-69EF1B321C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="302847" y="4679461"/>
+          <a:ext cx="7302500" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,20 +699,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB3A59-1F59-D940-9255-E2F4EC16B002}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="22" x14ac:dyDescent="0.3">
@@ -668,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -679,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -690,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -701,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -712,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -723,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -733,7 +810,9 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -743,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -754,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19" x14ac:dyDescent="0.25">
@@ -764,7 +843,9 @@
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -773,7 +854,9 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -782,7 +865,9 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
